--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Bosnie-Herzégovine/Pandémie_de_Covid-19_en_Bosnie-Herzégovine.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Bosnie-Herzégovine/Pandémie_de_Covid-19_en_Bosnie-Herzégovine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bosnie-Herz%C3%A9govine</t>
+          <t>Pandémie_de_Covid-19_en_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, dans la région du Hubei plus précisément dans la ville de Wuhan. La maladie à coronavirus 2019 (covid-19), dont l'agent pathogène est le SARS-CoV-2 à l'origine d'une pandémie[note 1] , déclarée le 11 mars 2020 par l'Organisation mondiale de la santé. En Bosnie-Herzégovine, elle débute officiellement le 5 mars 2020 lorsque le premier cas est confirmé[3].
-Au 5 novembre 2022, le pays compte 400 043 cas confirmés et 16 180 décès[2],[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, dans la région du Hubei plus précisément dans la ville de Wuhan. La maladie à coronavirus 2019 (covid-19), dont l'agent pathogène est le SARS-CoV-2 à l'origine d'une pandémie[note 1] , déclarée le 11 mars 2020 par l'Organisation mondiale de la santé. En Bosnie-Herzégovine, elle débute officiellement le 5 mars 2020 lorsque le premier cas est confirmé.
+Au 5 novembre 2022, le pays compte 400 043 cas confirmés et 16 180 décès,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bosnie-Herz%C3%A9govine</t>
+          <t>Pandémie_de_Covid-19_en_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le 11 mars, les autorités locales annoncent[réf. nécessaire] :
 La mise en quarantaine de 14 jours pour toute personne venant de France, d'Allemagne ou d'Espagne ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Bosnie-Herz%C3%A9govine</t>
+          <t>Pandémie_de_Covid-19_en_Bosnie-Herzégovine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
